--- a/crawl_results/results.xlsx
+++ b/crawl_results/results.xlsx
@@ -425,7 +425,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>https://www.runoob.com/css/css-tutorial.html</v>
+        <v>https://www.runoob.com/react/react-tutorial.html</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -433,7 +433,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>https://www.runoob.com/react/react-tutorial.html</v>
+        <v>https://www.runoob.com/css/css-tutorial.html</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -449,7 +449,7 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>https://www.runoob.com/</v>
+        <v>https://www.runoob.com/html/html-tutorial.html</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -473,7 +473,7 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>https://www.runoob.com/go/go-tutorial.html</v>
+        <v>https://www.runoob.com/cprogramming/c-tutorial.html</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -481,7 +481,7 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>https://www.runoob.com/cprogramming/c-tutorial.html</v>
+        <v>https://www.runoob.com/</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -497,7 +497,7 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>https://www.runoob.com/cplusplus/cpp-tutorial.html</v>
+        <v>https://www.runoob.com/linux/linux-tutorial.html</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -505,7 +505,7 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>https://www.runoob.com/browser-history</v>
+        <v>https://www.runoob.com/sql/sql-tutorial.html</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -513,7 +513,7 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>https://www.runoob.com/linux/linux-tutorial.html</v>
+        <v>https://www.runoob.com/go/go-tutorial.html</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -521,7 +521,7 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>https://www.runoob.com/sql/sql-tutorial.html</v>
+        <v>https://www.runoob.com/cplusplus/cpp-tutorial.html</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -529,7 +529,7 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>https://www.runoob.com/html/html-tutorial.html</v>
+        <v>https://www.runoob.com/vue3/vue3-tutorial.html</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -537,7 +537,7 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>https://www.runoob.com/vscode/vscode-tutorial.html</v>
+        <v>https://www.runoob.com/python/python-tutorial.html</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -545,7 +545,7 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>https://www.runoob.com/vue3/vue3-tutorial.html</v>
+        <v>https://www.runoob.com/browser-history</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -553,7 +553,7 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>https://www.runoob.com/bootstrap/bootstrap-tutorial.html</v>
+        <v>https://www.runoob.com/vscode/vscode-tutorial.html</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -569,7 +569,7 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>https://www.runoob.com/python/python-tutorial.html</v>
+        <v>https://www.runoob.com/bootstrap5/bootstrap5-tutorial.html</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -577,7 +577,7 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>https://www.runoob.com/bootstrap5/bootstrap5-tutorial.html</v>
+        <v>https://www.runoob.com/bootstrap/bootstrap-tutorial.html</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -593,7 +593,7 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>https://www.runoob.com/ml/ml-tutorial.html</v>
+        <v>https://www.runoob.com/vue/vue-tutorial.html</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -601,7 +601,7 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>https://www.runoob.com/ollama/ollama-tutorial.html</v>
+        <v>https://www.runoob.com/pytorch/pytorch-tutorial.html</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -609,7 +609,7 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>https://www.runoob.com/pytorch/pytorch-tutorial.html</v>
+        <v>https://www.runoob.com/ml/ml-tutorial.html</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>https://www.runoob.com/vue/vue-tutorial.html</v>
+        <v>https://www.runoob.com/ollama/ollama-tutorial.html</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -625,7 +625,7 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>https://www.runoob.com/sklearn/sklearn-tutorial.html</v>
+        <v>https://www.runoob.com/nlp/nlp-tutorial.html</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -633,7 +633,7 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>https://www.runoob.com/nlp/nlp-tutorial.html</v>
+        <v>https://www.runoob.com/tensorflow/tensorflow-tutorial.html</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -641,7 +641,7 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>https://www.runoob.com/tensorflow/tensorflow-tutorial.html</v>
+        <v>https://www.runoob.com/git/git-install-setup.html</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -649,7 +649,7 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>https://www.runoob.com/git/git-install-setup.html</v>
+        <v>https://www.runoob.com/sklearn/sklearn-tutorial.html</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -657,7 +657,7 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>https://www.runoob.com/git/git-workflow.html</v>
+        <v>https://www.runoob.com/git/git-create-repository.html</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -665,7 +665,7 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>https://www.runoob.com/git/git-branch.html</v>
+        <v>https://www.runoob.com/git/git-workflow.html</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -673,7 +673,7 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>https://www.runoob.com/git/git-commit-history.html</v>
+        <v>https://www.runoob.com/git/git-basic-operations.html</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -681,7 +681,7 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>https://www.runoob.com/git/git-basic-operations.html</v>
+        <v>https://www.runoob.com/git/git-branch.html</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -689,7 +689,7 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>https://www.runoob.com/git/git-create-repository.html</v>
+        <v>https://www.runoob.com/git/git-advance.html</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -697,7 +697,7 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>https://www.runoob.com/git/git-remote-repo.html</v>
+        <v>https://www.runoob.com/git/git-flow.html</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -705,7 +705,7 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>https://www.runoob.com/git/git-advance.html</v>
+        <v>https://www.runoob.com/git/git-tag.html</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -713,7 +713,7 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>https://www.runoob.com/git/git-tag.html</v>
+        <v>https://www.runoob.com/git/git-commit-history.html</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -721,7 +721,7 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>https://www.runoob.com/git/git-quiz.html</v>
+        <v>https://www.runoob.com/git/git-remote-repo.html</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -729,7 +729,7 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>https://www.runoob.com/git/git-server.html</v>
+        <v>https://www.runoob.com/git/source-tree-intro.html</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -737,7 +737,7 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>https://www.runoob.com/git/source-tree-intro.html</v>
+        <v>https://www.runoob.com/git/git-server.html</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -745,7 +745,7 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>https://www.runoob.com/manual/git-guide/</v>
+        <v>https://www.runoob.com/git/git-quiz.html</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -753,7 +753,7 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>https://www.runoob.com/git/git-flow.html</v>
+        <v>https://www.runoob.com/w3cnote/git-five-minutes-tutorial.html</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -761,7 +761,7 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>https://www.runoob.com/manual/github-git-cheat-sheet.pdf</v>
+        <v>https://www.runoob.com/manual/git-guide/</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -769,7 +769,7 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>https://www.runoob.com/w3cnote/git-guide.html</v>
+        <v>http://www.runoob.com/git/git-install-setup.html</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -777,7 +777,7 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>https://www.runoob.com/w3cnote/git-five-minutes-tutorial.html</v>
+        <v>https://www.runoob.com/manual/github-git-cheat-sheet.pdf</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -793,7 +793,7 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>https://www.runoob.com/html/html5-intro.html</v>
+        <v>https://www.runoob.com/w3cnote/git-guide.html</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -801,7 +801,7 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>https://www.runoob.com/w3cnote/internet-organization-github.html</v>
+        <v>https://www.runoob.com/css3/css3-tutorial.html</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -809,7 +809,7 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>http://www.runoob.com/git/git-install-setup.html</v>
+        <v>https://www.runoob.com/tailwindcss/tailwindcss-tutorial.html</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -817,7 +817,7 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>https://www.runoob.com/foundation/foundation-tutorial.html</v>
+        <v>https://www.runoob.com/html/html5-intro.html</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -825,7 +825,7 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>https://www.runoob.com/css3/css3-tutorial.html</v>
+        <v>https://www.runoob.com/w3cnote/internet-organization-github.html</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -833,7 +833,7 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>https://www.runoob.com/tailwindcss/tailwindcss-tutorial.html</v>
+        <v>https://www.runoob.com/jquery/jquery-tutorial.html</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -841,7 +841,7 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>https://www.runoob.com/font-awesome/fontawesome-tutorial.html</v>
+        <v>https://www.runoob.com/htmldom/htmldom-tutorial.html</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -849,7 +849,7 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>https://www.runoob.com/jquery/jquery-tutorial.html</v>
+        <v>https://www.runoob.com/foundation/foundation-tutorial.html</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -857,7 +857,7 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>https://www.runoob.com/angularjs/angularjs-tutorial.html</v>
+        <v>https://www.runoob.com/font-awesome/fontawesome-tutorial.html</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -865,7 +865,7 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>https://www.runoob.com/htmldom/htmldom-tutorial.html</v>
+        <v>https://www.runoob.com/nextjs/nextjs-tutorial.html</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -881,7 +881,7 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>https://www.runoob.com/jqueryui/jqueryui-tutorial.html</v>
+        <v>https://www.runoob.com/angularjs/angularjs-tutorial.html</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -889,7 +889,7 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>https://www.runoob.com/typescript/ts-tutorial.html</v>
+        <v>https://www.runoob.com/vue2/vue-tutorial.html</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -897,7 +897,7 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>https://www.runoob.com/vue2/vue-tutorial.html</v>
+        <v>https://www.runoob.com/nodejs/nodejs-tutorial.html</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -905,7 +905,7 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>https://www.runoob.com/nextjs/nextjs-tutorial.html</v>
+        <v>https://www.runoob.com/typescript/ts-tutorial.html</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -913,7 +913,7 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>https://www.runoob.com/ajax/ajax-tutorial.html</v>
+        <v>https://www.runoob.com/jeasyui/jqueryeasyui-tutorial.html</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>https://www.runoob.com/nodejs/nodejs-tutorial.html</v>
+        <v>https://www.runoob.com/echarts/echarts-tutorial.html</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -929,7 +929,7 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>https://www.runoob.com/jeasyui/jqueryeasyui-tutorial.html</v>
+        <v>https://www.runoob.com/ajax/ajax-tutorial.html</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -937,7 +937,7 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>https://www.runoob.com/chartjs/chartjs-tutorial.html</v>
+        <v>https://www.runoob.com/json/json-tutorial.html</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -945,7 +945,7 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>https://www.runoob.com/echarts/echarts-tutorial.html</v>
+        <v>https://www.runoob.com/googleapi/google-maps-basic.html</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -953,7 +953,7 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>https://www.runoob.com/json/json-tutorial.html</v>
+        <v>https://www.runoob.com/chartjs/chartjs-tutorial.html</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -961,7 +961,7 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>https://www.runoob.com/highcharts/highcharts-tutorial.html</v>
+        <v>https://www.runoob.com/docker/docker-tutorial.html</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -969,7 +969,7 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>https://www.runoob.com/googleapi/google-maps-basic.html</v>
+        <v>https://www.runoob.com/highcharts/highcharts-tutorial.html</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -977,7 +977,7 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>https://www.runoob.com/servlet/servlet-tutorial.html</v>
+        <v>https://www.runoob.com/jqueryui/jqueryui-tutorial.html</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -985,7 +985,7 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>https://www.runoob.com/perl/perl-tutorial.html</v>
+        <v>https://www.runoob.com/jsp/jsp-tutorial.html</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -993,7 +993,7 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>https://www.runoob.com/docker/docker-tutorial.html</v>
+        <v>https://www.runoob.com/perl/perl-tutorial.html</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -1001,7 +1001,7 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>https://www.runoob.com/ruby/ruby-tutorial.html</v>
+        <v>https://www.runoob.com/servlet/servlet-tutorial.html</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -1009,7 +1009,7 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>https://www.runoob.com/rust/rust-tutorial.html</v>
+        <v>https://www.runoob.com/zig/zig-tutorial.html</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -1017,7 +1017,7 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>https://www.runoob.com/zig/zig-tutorial.html</v>
+        <v>https://www.runoob.com/rust/rust-tutorial.html</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -1025,7 +1025,7 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>https://www.runoob.com/jsp/jsp-tutorial.html</v>
+        <v>https://www.runoob.com/lua/lua-tutorial.html</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -1033,7 +1033,7 @@
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>https://www.runoob.com/lua/lua-tutorial.html</v>
+        <v>https://www.runoob.com/ruby/ruby-tutorial.html</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -1049,7 +1049,7 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>https://www.runoob.com/django/django-tutorial.html</v>
+        <v>https://www.runoob.com/php/php-tutorial.html</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>https://www.runoob.com/php/php-tutorial.html</v>
+        <v>https://www.runoob.com/fastapi/fastapi-tutorial.html</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>https://www.runoob.com/c/c-tutorial.html</v>
+        <v>https://www.runoob.com/django/django-tutorial.html</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -1081,7 +1081,7 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>https://www.runoob.com/w3cnote/zookeeper-tutorial.html</v>
+        <v>https://www.runoob.com/pillow/pillow-tutorial.html</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>https://www.runoob.com/pillow/pillow-tutorial.html</v>
+        <v>https://www.runoob.com/flask/flask-tutorial.html</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -1097,7 +1097,7 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>https://www.runoob.com/fastapi/fastapi-tutorial.html</v>
+        <v>https://www.runoob.com/w3cnote/zookeeper-tutorial.html</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -1105,7 +1105,7 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>https://www.runoob.com/flask/flask-tutorial.html</v>
+        <v>https://www.runoob.com/maven/maven-tutorial.html</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -1113,7 +1113,7 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>https://www.runoob.com/design-pattern/design-pattern-tutorial.html</v>
+        <v>https://www.runoob.com/regexp/regexp-tutorial.html</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -1121,7 +1121,7 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>https://www.runoob.com/regexp/regexp-tutorial.html</v>
+        <v>https://www.runoob.com/design-pattern/design-pattern-tutorial.html</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>https://www.runoob.com/w3cnote/verilog-tutorial.html</v>
+        <v>https://www.runoob.com/c/c-tutorial.html</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -1137,7 +1137,7 @@
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>https://www.runoob.com/asp/asp-tutorial.html</v>
+        <v>https://www.runoob.com/vbscript/vbscript-tutorial.html</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>https://www.runoob.com/mysql/mysql-tutorial.html</v>
+        <v>https://www.runoob.com/w3cnote/verilog-tutorial.html</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -1161,7 +1161,7 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>https://www.runoob.com/vbscript/vbscript-tutorial.html</v>
+        <v>https://www.runoob.com/asp/asp-tutorial.html</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -1177,7 +1177,7 @@
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>https://www.runoob.com/postgresql/postgresql-tutorial.html</v>
+        <v>https://www.runoob.com/redis/redis-tutorial.html</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -1185,7 +1185,7 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>https://www.runoob.com/sqlite/sqlite-tutorial.html</v>
+        <v>https://www.runoob.com/postgresql/postgresql-tutorial.html</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -1193,7 +1193,7 @@
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>https://www.runoob.com/mongodb/mongodb-tutorial.html</v>
+        <v>https://www.runoob.com/mysql/mysql-tutorial.html</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -1201,7 +1201,7 @@
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>https://www.runoob.com/Memcached/Memcached-tutorial.html</v>
+        <v>https://www.runoob.com/mongodb/mongodb-tutorial.html</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -1209,7 +1209,7 @@
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>https://www.runoob.com/redis/redis-tutorial.html</v>
+        <v>https://www.runoob.com/matplotlib/matplotlib-tutorial.html</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -1217,7 +1217,7 @@
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>https://www.runoob.com/scipy/scipy-tutorial.html</v>
+        <v>https://www.runoob.com/numpy/numpy-tutorial.html</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -1225,7 +1225,7 @@
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>https://www.runoob.com/numpy/numpy-tutorial.html</v>
+        <v>https://www.runoob.com/pandas/pandas-tutorial.html</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -1233,7 +1233,7 @@
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>https://www.runoob.com/pandas/pandas-tutorial.html</v>
+        <v>https://www.runoob.com/Memcached/Memcached-tutorial.html</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -1241,7 +1241,7 @@
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>https://www.runoob.com/matplotlib/matplotlib-tutorial.html</v>
+        <v>https://www.runoob.com/selenium/selenium-tutorial.html</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -1249,7 +1249,7 @@
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>https://www.runoob.com/maven/maven-tutorial.html</v>
+        <v>https://www.runoob.com/opencv/opencv-tutorial.html</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -1257,7 +1257,7 @@
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>https://www.runoob.com/julia/julia-tutorial.html</v>
+        <v>https://www.runoob.com/r/r-tutorial.html</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>https://www.runoob.com/dash/dash-tutorial.html</v>
+        <v>https://www.runoob.com/scipy/scipy-tutorial.html</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -1273,7 +1273,7 @@
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>https://www.runoob.com/selenium/selenium-tutorial.html</v>
+        <v>https://www.runoob.com/sqlite/sqlite-tutorial.html</v>
       </c>
       <c r="B109">
         <v>1</v>
@@ -1281,7 +1281,7 @@
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>https://www.runoob.com/r/r-tutorial.html</v>
+        <v>https://www.runoob.com/swift/swift-tutorial.html</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -1289,7 +1289,7 @@
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>https://www.runoob.com/opencv/opencv-tutorial.html</v>
+        <v>https://www.runoob.com/julia/julia-tutorial.html</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>https://www.runoob.com/ionic/ionic-tutorial.html</v>
+        <v>https://www.runoob.com/w3cnote/android-tutorial-intro.html</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -1305,7 +1305,7 @@
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>https://www.runoob.com/swift/swift-tutorial.html</v>
+        <v>https://www.runoob.com/dash/dash-tutorial.html</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -1313,7 +1313,7 @@
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>https://www.runoob.com/w3cnote/android-tutorial-intro.html</v>
+        <v>https://www.runoob.com/pycharm/pycharm-tutorial.html</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -1321,7 +1321,7 @@
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>https://www.runoob.com/pycharm/pycharm-tutorial.html</v>
+        <v>https://www.runoob.com/kotlin/kotlin-tutorial.html</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>https://www.runoob.com/swagger/swagger-tutorial.html</v>
+        <v>https://www.runoob.com/ionic/ionic-tutorial.html</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -1337,7 +1337,7 @@
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>https://www.runoob.com/kotlin/kotlin-tutorial.html</v>
+        <v>https://www.runoob.com/jquerymobile/jquerymobile-tutorial.html</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -1345,7 +1345,7 @@
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>https://www.runoob.com/jquerymobile/jquerymobile-tutorial.html</v>
+        <v>https://www.runoob.com/svn/svn-tutorial.html</v>
       </c>
       <c r="B118">
         <v>1</v>
@@ -1353,7 +1353,7 @@
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>https://www.runoob.com/qt/qt-tutorial.html</v>
+        <v>https://www.runoob.com/eclipse/eclipse-tutorial.html</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -1361,7 +1361,7 @@
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>https://www.runoob.com/svn/svn-tutorial.html</v>
+        <v>https://www.runoob.com/restfulapi/restful-api-tutorial.html</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -1369,7 +1369,7 @@
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>https://www.runoob.com/eclipse/eclipse-tutorial.html</v>
+        <v>https://www.runoob.com/qt/qt-tutorial.html</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -1377,7 +1377,7 @@
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>https://www.runoob.com/markdown/md-tutorial.html</v>
+        <v>https://www.runoob.com/swagger/swagger-tutorial.html</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -1385,7 +1385,7 @@
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>https://www.runoob.com/restfulapi/restful-api-tutorial.html</v>
+        <v>https://www.runoob.com/markdown/md-tutorial.html</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -1393,7 +1393,7 @@
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>https://www.runoob.com/xml/xml-tutorial.html</v>
+        <v>https://www.runoob.com/dom/dom-tutorial.html</v>
       </c>
       <c r="B124">
         <v>1</v>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>https://www.runoob.com/dtd/dtd-tutorial.html</v>
+        <v>https://www.runoob.com/xml/xml-tutorial.html</v>
       </c>
       <c r="B125">
         <v>1</v>
@@ -1409,7 +1409,7 @@
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>https://www.runoob.com/xpath/xpath-tutorial.html</v>
+        <v>https://www.runoob.com/xquery/xquery-tutorial.html</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -1417,7 +1417,7 @@
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>https://www.runoob.com/xquery/xquery-tutorial.html</v>
+        <v>https://www.runoob.com/xpath/xpath-tutorial.html</v>
       </c>
       <c r="B127">
         <v>1</v>
@@ -1425,7 +1425,7 @@
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>https://www.runoob.com/xsl/xsl-tutorial.html</v>
+        <v>https://www.runoob.com/xlink/xlink-tutorial.html</v>
       </c>
       <c r="B128">
         <v>1</v>
@@ -1433,7 +1433,7 @@
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>https://www.runoob.com/dom/dom-tutorial.html</v>
+        <v>https://www.runoob.com/svg/svg-tutorial.html</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -1441,7 +1441,7 @@
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>https://www.runoob.com/schema/schema-tutorial.html</v>
+        <v>https://www.runoob.com/xslfo/xslfo-tutorial.html</v>
       </c>
       <c r="B130">
         <v>1</v>
@@ -1449,7 +1449,7 @@
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>https://www.runoob.com/xslfo/xslfo-tutorial.html</v>
+        <v>https://www.runoob.com/schema/schema-tutorial.html</v>
       </c>
       <c r="B131">
         <v>1</v>
@@ -1457,7 +1457,7 @@
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>https://www.runoob.com/aspnet/aspnet-tutorial.html</v>
+        <v>https://www.runoob.com/xsl/xsl-tutorial.html</v>
       </c>
       <c r="B132">
         <v>1</v>
@@ -1465,7 +1465,7 @@
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>https://www.runoob.com/svg/svg-tutorial.html</v>
+        <v>https://www.runoob.com/dtd/dtd-tutorial.html</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -1473,7 +1473,7 @@
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>https://www.runoob.com/xlink/xlink-tutorial.html</v>
+        <v>https://www.runoob.com/aspnet/mvc-intro.html</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -1481,7 +1481,7 @@
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>https://www.runoob.com/aspnet/aspnet-intro.html</v>
+        <v>https://www.runoob.com/aspnet/aspnet-tutorial.html</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -1489,7 +1489,7 @@
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>https://www.runoob.com/webservices/webservices-tutorial.html</v>
+        <v>https://www.runoob.com/aspnet/webpages-intro.html</v>
       </c>
       <c r="B136">
         <v>1</v>
@@ -1497,7 +1497,7 @@
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>https://www.runoob.com/aspnet/mvc-intro.html</v>
+        <v>https://www.runoob.com/aspnet/razor-intro.html</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -1521,7 +1521,7 @@
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>https://www.runoob.com/aspnet/razor-intro.html</v>
+        <v>https://www.runoob.com/webservices/webservices-tutorial.html</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -1529,7 +1529,7 @@
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>https://www.runoob.com/aspnet/webpages-intro.html</v>
+        <v>https://www.runoob.com/aspnet/aspnet-intro.html</v>
       </c>
       <c r="B141">
         <v>1</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>https://www.runoob.com/browsers/browser-information.html</v>
+        <v>https://www.runoob.com/web/web-buildingprimer.html</v>
       </c>
       <c r="B142">
         <v>1</v>
@@ -1545,7 +1545,7 @@
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>https://www.runoob.com/rdf/rdf-tutorial.html</v>
+        <v>https://www.runoob.com/browsers/browser-information.html</v>
       </c>
       <c r="B143">
         <v>1</v>
@@ -1553,7 +1553,7 @@
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>https://www.runoob.com/rss/rss-tutorial.html</v>
+        <v>https://www.runoob.com/http/http-tutorial.html</v>
       </c>
       <c r="B144">
         <v>1</v>
@@ -1561,7 +1561,7 @@
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>https://www.runoob.com/http/http-tutorial.html</v>
+        <v>https://www.runoob.com/rdf/rdf-tutorial.html</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -1569,7 +1569,7 @@
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>https://www.runoob.com/web/web-buildingprimer.html</v>
+        <v>https://www.runoob.com/tcpip/tcpip-tutorial.html</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -1577,7 +1577,7 @@
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>https://www.runoob.com/hosting/hosting-tutorial.html</v>
+        <v>https://www.runoob.com/w3c/w3c-tutorial.html</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -1585,7 +1585,7 @@
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>https://www.runoob.com/np/np-tutorial.html</v>
+        <v>https://www.runoob.com/hosting/hosting-tutorial.html</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -1593,7 +1593,7 @@
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>https://www.runoob.com/html/html-examples.html</v>
+        <v>https://www.runoob.com/np/np-tutorial.html</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>https://www.runoob.com/js/js-examples.html</v>
+        <v>https://www.runoob.com/css/css-examples.html</v>
       </c>
       <c r="B150">
         <v>1</v>
@@ -1609,7 +1609,7 @@
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>https://www.runoob.com/tcpip/tcpip-tutorial.html</v>
+        <v>https://www.runoob.com/js/js-examples.html</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -1617,7 +1617,7 @@
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>https://www.runoob.com/w3c/w3c-tutorial.html</v>
+        <v>https://www.runoob.com/quality/quality-tutorial.html</v>
       </c>
       <c r="B152">
         <v>1</v>
@@ -1625,7 +1625,7 @@
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>https://www.runoob.com/jquery/jquery-examples.html</v>
+        <v>https://www.runoob.com/html/html-examples.html</v>
       </c>
       <c r="B153">
         <v>1</v>
@@ -1633,7 +1633,7 @@
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>https://www.runoob.com/quality/quality-tutorial.html</v>
+        <v>https://www.runoob.com/rss/rss-tutorial.html</v>
       </c>
       <c r="B154">
         <v>1</v>
@@ -1641,7 +1641,7 @@
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>https://www.runoob.com/css/css-examples.html</v>
+        <v>https://www.runoob.com/java/java-examples.html</v>
       </c>
       <c r="B155">
         <v>1</v>
@@ -1649,7 +1649,7 @@
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>https://www.runoob.com/charsets/html-charsets.html</v>
+        <v>https://www.runoob.com/jquery/jquery-examples.html</v>
       </c>
       <c r="B156">
         <v>1</v>
@@ -1657,7 +1657,7 @@
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>https://www.runoob.com/tags/html-ascii.html</v>
+        <v>https://www.runoob.com/xml/xml-examples.html</v>
       </c>
       <c r="B157">
         <v>1</v>
@@ -1665,7 +1665,7 @@
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>https://www.runoob.com/xml/xml-examples.html</v>
+        <v>https://www.runoob.com/tags/html-colorpicker.html</v>
       </c>
       <c r="B158">
         <v>1</v>
@@ -1673,7 +1673,7 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>https://www.runoob.com/java/java-examples.html</v>
+        <v>https://www.runoob.com/tags/html-ascii.html</v>
       </c>
       <c r="B159">
         <v>1</v>
@@ -1681,7 +1681,7 @@
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>https://www.runoob.com/tags/html-colorpicker.html</v>
+        <v>http://www.runoob.com/python3/python-venv.html</v>
       </c>
       <c r="B160">
         <v>1</v>
@@ -1689,7 +1689,7 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>http://www.runoob.com/fastapi/vscode-fastapi.html</v>
+        <v>https://www.runoob.com/charsets/html-charsets.html</v>
       </c>
       <c r="B161">
         <v>1</v>
@@ -1697,7 +1697,7 @@
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>http://www.runoob.com/python3/python-venv.html</v>
+        <v>https://www.runoob.com/ajx/ajax-examples.html</v>
       </c>
       <c r="B162">
         <v>1</v>
@@ -1705,7 +1705,7 @@
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>http://www.runoob.com/fastapi/fastapi-core.html</v>
+        <v>http://www.runoob.com/nlp/data-processing-tools.html</v>
       </c>
       <c r="B163">
         <v>1</v>
@@ -1713,7 +1713,7 @@
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>https://www.runoob.com/ajx/ajax-examples.html</v>
+        <v>http://www.runoob.com/fastapi/fastapi-core.html</v>
       </c>
       <c r="B164">
         <v>1</v>
@@ -1729,7 +1729,7 @@
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>http://www.runoob.com/nlp/python-nlp.html</v>
+        <v>http://www.runoob.com/fastapi/vscode-fastapi.html</v>
       </c>
       <c r="B166">
         <v>1</v>
@@ -1745,7 +1745,7 @@
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>http://www.runoob.com/nlp/data-processing-tools.html</v>
+        <v>https://www.runoob.com/aboutus</v>
       </c>
       <c r="B168">
         <v>1</v>
@@ -1753,7 +1753,7 @@
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>https://www.runoob.com/aboutus</v>
+        <v>http://www.runoob.com/nlp/python-nlp.html</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -1761,7 +1761,7 @@
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>https://www.runoob.com/archives</v>
+        <v>http://www.runoob.com/nlp/multimodal-pre-trained-models.html</v>
       </c>
       <c r="B170">
         <v>1</v>
@@ -1769,7 +1769,7 @@
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>http://www.runoob.com/nlp/multimodal-pre-trained-models.html</v>
+        <v>https://www.runoob.com/archives</v>
       </c>
       <c r="B171">
         <v>1</v>
